--- a/data/trans_camb/P9_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-1,22</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 14,56</t>
+          <t>-28,74; 19,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 21,23</t>
+          <t>-22,46; 20,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 11,6</t>
+          <t>-18,04; 15,41</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>-2,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,04%</t>
+          <t>-1,94%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,78; 27,62</t>
+          <t>-39,44; 37,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,24; 47,71</t>
+          <t>-32,08; 38,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 22,31</t>
+          <t>-25,97; 29,04</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-2,45</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 19,38</t>
+          <t>-31,19; 25,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 11,74</t>
+          <t>-21,65; 16,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 11,18</t>
+          <t>-21,79; 17,18</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>-6,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,86%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,91%</t>
+          <t>-4,72%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 48,63</t>
+          <t>-57,18; 75,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 22,9</t>
+          <t>-31,59; 30,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,06; 23,61</t>
+          <t>-34,79; 39,43</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 17,89</t>
+          <t>-16,21; 18,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 11,03</t>
+          <t>-11,38; 14,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 9,47</t>
+          <t>-9,97; 9,64</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,42%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,28%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 33,69</t>
+          <t>-22,04; 34,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 17,1</t>
+          <t>-14,37; 23,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 15,6</t>
+          <t>-13,36; 15,33</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>-0,98</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-1,2</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 10,94</t>
+          <t>-17,4; 13,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 10,63</t>
+          <t>-14,5; 11,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 7,6</t>
+          <t>-11,03; 8,17</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>-1,92%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 18,29</t>
+          <t>-25,6; 24,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 19,15</t>
+          <t>-21,17; 20,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 13,06</t>
+          <t>-16,72; 14,14</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 12,22</t>
+          <t>-19,36; 18,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 14,61</t>
+          <t>-18,15; 20,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 8,93</t>
+          <t>-13,97; 13,27</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-2,3%</t>
+          <t>-2,06%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,14%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-0,59%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 27,09</t>
+          <t>-32,06; 42,6</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 37,69</t>
+          <t>-28,87; 52,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 20,41</t>
+          <t>-23,09; 28,36</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-0,37</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 15,33</t>
+          <t>-22,26; 20,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 16,84</t>
+          <t>-17,97; 18,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 11,26</t>
+          <t>-14,49; 13,91</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>-1,28%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>-1,15%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-34,82; 60,46</t>
+          <t>-42,96; 75,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 90,84</t>
+          <t>-49,97; 113,62</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 47,19</t>
+          <t>-37,42; 57,36</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,91</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 6,76</t>
+          <t>-10,65; 7,54</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 6,4</t>
+          <t>-7,49; 6,61</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 5,13</t>
+          <t>-6,73; 4,86</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>-2,43%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>-1,61%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 12,91</t>
+          <t>-17,94; 14,21</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 12,61</t>
+          <t>-12,19; 11,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 10,0</t>
+          <t>-11,16; 8,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P9_3-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,22</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.890429172000442</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5255666213715648</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.9191905761174901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-28,74; 19,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-22,46; 20,16</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,04; 15,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-30.26671049710983</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-20.91090218160697</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-17.569718292942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,59%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,42%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,94%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>18.75011101593949</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.005901790934</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.40153455733683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-39,44; 37,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-32,08; 38,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-25,97; 29,04</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.04477330068155744</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.008541495487283529</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.0146343807743623</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,79</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.4130023301468886</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2945893085534115</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2452449779495362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-31,19; 25,56</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-21,65; 16,34</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-21,79; 17,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.3456594653944495</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.4352362501752574</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2856018982297981</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,43%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,53%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-4,72%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.312242538066517</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.7293773857779184</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4989012864656028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-57,18; 75,96</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-31,59; 30,7</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-34,79; 39,43</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-24.86883486184587</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.8579986292002</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-18.37045389234529</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>31.50722268683883</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>17.23417838500081</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20.19545671320348</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-16,21; 18,28</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,38; 14,38</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,97; 9,64</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.05335298213265122</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.01196046843699565</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.00958587761190785</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,15%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,79%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.4624199240992106</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2981616839251978</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3027189253119163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-22,04; 34,77</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-14,37; 23,16</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-13,36; 15,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.102009654968292</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.3369115989595762</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.4822422163430593</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,45</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>2.146649319646332</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.7310964367807093</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.4098703700004203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-17,4; 13,17</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-14,5; 11,46</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-11,03; 8,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.98951042313592</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-13.63503416144365</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-11.02442714352744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-2,38%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-1,55%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-1,92%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>19.8991083486929</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>13.29406979923905</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>9.35734159818103</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-25,6; 24,57</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-21,17; 20,49</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-16,72; 14,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.03285691793393225</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.01044908727448397</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.00601475723469678</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1883408531185672</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1774165886122327</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1525626905991032</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-19,36; 18,71</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-18,15; 20,31</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-13,97; 13,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.3775130661992818</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2102973227128983</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.1466295783540275</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-2,06%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1,4%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,59%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-3.123430723486764</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.2909575245833018</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.57364256481739</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-32,06; 42,6</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-28,87; 52,21</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-23,09; 28,36</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-19.12376057537952</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-14.70567814534319</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-11.50048145997754</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>11.8795678425191</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>11.84813204816423</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>8.044334094216323</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-22,26; 20,96</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-17,97; 18,08</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-14,49; 13,91</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.05112454309414215</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.004583909625829707</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.0252277982355434</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-1,28%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-1,15%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2834768867363953</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2061955647122498</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1683671140314811</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-42,96; 75,34</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-49,97; 113,62</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-37,42; 57,36</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2132308835413601</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.2065592447709038</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1444011415738632</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-1.816451266127372</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>0.6930481722800863</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-0.7517318623941782</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 7,54</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-7,49; 6,61</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-6,73; 4,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-20.57497568383283</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-18.36335661613123</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-14.62244785834624</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-2,43%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-0,97%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-1,61%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>17.50698261783642</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>20.58013428852679</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>12.82189181670968</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-17,94; 14,21</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-12,19; 11,94</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-11,16; 8,87</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.03443010913621169</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.01319548447431492</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.01427604559029004</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.3425791089669445</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.2925520431414125</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.2442880167161848</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.4097027213255066</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.519538674558041</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.268668874041564</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>0.7252622513813367</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>0.5488949752364691</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>0.7739582496839759</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-19.9415466142124</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-17.86388853043453</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-13.84144359295342</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>24.59762423454931</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>18.87972436863118</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>15.1330923054931</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.01809039422856827</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.02099912521535481</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.0237984312889994</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.4008652107740665</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.4946578797117038</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.3607868399131764</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.8669421838407055</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>1.148570224454323</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.6158916124633981</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-0.5512383260103393</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>0.1135528756427084</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-0.2051448144696377</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-9.226676020679822</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-6.962519304829396</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-6.35161644923187</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>8.924025178004182</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>7.115149445266673</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>5.574475228279361</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.01001992488274988</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.001940053878929683</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.003605695739590268</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1588762314537435</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1106258269456346</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1027722453823009</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.1767302942867016</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.1322101079284682</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.1014102934687389</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
